--- a/WVDInt for Pieter/src.xlsx
+++ b/WVDInt for Pieter/src.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code repo\github\PowerShell\WVDInt for Pieter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B00E9A-4DA9-4EDA-A06B-5E85B99C22D0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AF111-1B51-4481-9B29-484EB9D8D3B0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10710" xr2:uid="{9683C4C4-CA5D-41A7-A246-F605FF9636A8}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>firstname</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>LR52JT46XF65</t>
   </si>
   <si>
     <t>Column1</t>
@@ -478,7 +475,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E301"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -515,11 +512,9 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
